--- a/PCB Design & Manufacturing/Electric Imp/Manufacturing & Assembly/EnviroNode_Rev_1_0_BOM.xlsx
+++ b/PCB Design & Manufacturing/Electric Imp/Manufacturing & Assembly/EnviroNode_Rev_1_0_BOM.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585"/>
+    <workbookView minimized="1" xWindow="480" yWindow="120" windowWidth="19995" windowHeight="15585"/>
   </bookViews>
   <sheets>
     <sheet name="BOC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">BOC!$D$1:$D$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">BOC!$D$1:$D$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -33,21 +33,9 @@
     <t/>
   </si>
   <si>
-    <t>Nichicon</t>
-  </si>
-  <si>
-    <t>KEMET</t>
-  </si>
-  <si>
     <t>Murata Electronics North America</t>
   </si>
   <si>
-    <t>TDK</t>
-  </si>
-  <si>
-    <t>Samsung Electro-Mechanics</t>
-  </si>
-  <si>
     <t>Fairchild</t>
   </si>
   <si>
@@ -57,9 +45,6 @@
     <t>Fairchild, Diodes Incorporated, Diodes Incorporated</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
     <t>Macronix</t>
   </si>
   <si>
@@ -132,9 +117,6 @@
     <t>R4, R31, R32</t>
   </si>
   <si>
-    <t>R42, R43, R44, R45</t>
-  </si>
-  <si>
     <t>R6, R7, R8, R23, R41</t>
   </si>
   <si>
@@ -165,15 +147,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>CAP CER 0.1UF 10V X5R 0402</t>
-  </si>
-  <si>
-    <t>CAP CER 1.0UF 6.3V X7R 0402</t>
-  </si>
-  <si>
-    <t>CAP CER 2pF 6.3V X7R 0402</t>
-  </si>
-  <si>
     <t>CAP,ALUM POLYMER,220uF,20%,16V,SMD</t>
   </si>
   <si>
@@ -183,9 +156,6 @@
     <t>CAP CER 15PF 50V C0G/NP0 0402</t>
   </si>
   <si>
-    <t>CAP CER 10UF 10V X5R 0805</t>
-  </si>
-  <si>
     <t>CAP CER 4.7UF 6.3V X5R 0402</t>
   </si>
   <si>
@@ -244,6 +214,39 @@
   </si>
   <si>
     <t>XTAL, 32.768kHz, 20ppm, 6pF, 60K Ohm, 3215</t>
+  </si>
+  <si>
+    <t>R42</t>
+  </si>
+  <si>
+    <t>R43</t>
+  </si>
+  <si>
+    <t>R44, R45</t>
+  </si>
+  <si>
+    <t>RES SMD 619K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>RES SMD 158K OHM 1% 1/16W 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 0.1UF 6.3V X5R 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 1.0UF 6.3V X5R 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 2pF 6.3V X5R 0402</t>
+  </si>
+  <si>
+    <t>CAP CER 10UF 6.3V X5R 0805</t>
+  </si>
+  <si>
+    <t>Bosch</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -268,12 +271,24 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -288,12 +303,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,13 +607,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -604,384 +621,382 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="D14"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D15"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D18"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D19"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="D21"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D29"/>
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
